--- a/クレイジー進捗表.xlsx
+++ b/クレイジー進捗表.xlsx
@@ -1119,6 +1119,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1143,63 +1197,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1207,6 +1204,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3761,15 +3761,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1308845</xdr:colOff>
+      <xdr:colOff>1363273</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>199463</xdr:rowOff>
+      <xdr:rowOff>155920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1288096</xdr:colOff>
+      <xdr:colOff>1342524</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>308320</xdr:rowOff>
+      <xdr:rowOff>264777</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3778,7 +3778,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5554274" y="4771463"/>
+          <a:off x="5608702" y="4727920"/>
           <a:ext cx="1394393" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
@@ -5132,125 +5132,125 @@
       </c>
     </row>
     <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="33" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="30" t="s">
+      <c r="N7" s="39"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="48" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="28"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="31"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="49"/>
     </row>
     <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="31"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="49"/>
     </row>
     <row r="10" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="28"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="31"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="49"/>
     </row>
     <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="31"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="49"/>
     </row>
     <row r="12" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="32"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="50"/>
     </row>
     <row r="13" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M13" s="36" t="s">
+      <c r="M13" s="28" t="s">
         <v>64</v>
       </c>
     </row>
@@ -5258,19 +5258,19 @@
       <c r="B14" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="37"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="37"/>
+      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M16" s="37"/>
+      <c r="M16" s="29"/>
     </row>
     <row r="17" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M17" s="37"/>
+      <c r="M17" s="29"/>
     </row>
     <row r="22" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
@@ -5317,6 +5317,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="Q7:Q12"/>
+    <mergeCell ref="M7:M12"/>
     <mergeCell ref="M13:M17"/>
     <mergeCell ref="N11:P12"/>
     <mergeCell ref="N9:P10"/>
@@ -5324,12 +5330,6 @@
     <mergeCell ref="C11:L12"/>
     <mergeCell ref="C9:L10"/>
     <mergeCell ref="C7:L8"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="Q7:Q12"/>
-    <mergeCell ref="M7:M12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5341,8 +5341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:L14"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5407,239 +5407,244 @@
       </c>
     </row>
     <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="33" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="55" t="s">
+      <c r="N7" s="39"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="54" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="28"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="56"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="55"/>
     </row>
     <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="56"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="55"/>
     </row>
     <row r="10" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="28"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="56"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="55"/>
     </row>
     <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="56"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="55"/>
     </row>
     <row r="12" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="28"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="56"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="55"/>
     </row>
     <row r="13" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="56"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="55"/>
     </row>
     <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="28"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="56"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="55"/>
     </row>
     <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="56"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="55"/>
     </row>
     <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="28"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="56"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="55"/>
     </row>
     <row r="17" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="56"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="55"/>
     </row>
     <row r="18" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="57"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="Q7:Q18"/>
     <mergeCell ref="M7:M18"/>
@@ -5656,11 +5661,6 @@
     <mergeCell ref="C17:L18"/>
     <mergeCell ref="C15:L16"/>
     <mergeCell ref="C13:L14"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5738,84 +5738,84 @@
       </c>
     </row>
     <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="33" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="55" t="s">
+      <c r="N7" s="39"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="54" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="28"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="56"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="55"/>
     </row>
     <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="56"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="55"/>
     </row>
     <row r="10" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="57"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="56"/>
     </row>
     <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
@@ -5920,17 +5920,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="Q7:Q10"/>
     <mergeCell ref="M7:M10"/>
     <mergeCell ref="C7:L8"/>
     <mergeCell ref="N7:P8"/>
     <mergeCell ref="N9:P10"/>
     <mergeCell ref="C9:L10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/クレイジー進捗表.xlsx
+++ b/クレイジー進捗表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="48" windowWidth="23256" windowHeight="13176" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="13230" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="チームメンバー" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="96">
   <si>
     <t>チームメンバー（担当）</t>
     <phoneticPr fontId="1"/>
@@ -252,10 +252,6 @@
   </si>
   <si>
     <t>6月23日（火）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6月25日（木）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -297,10 +293,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マスター版</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイトル画面</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -398,6 +390,22 @@
   </si>
   <si>
     <t>ストーリーイラスト画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提出</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提出</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提出!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6月24日（水）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -488,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -764,17 +772,17 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -784,6 +792,191 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -798,24 +991,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -826,206 +1001,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1034,7 +1015,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1074,139 +1055,175 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1487,15 +1504,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38098</xdr:colOff>
+      <xdr:colOff>138951</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>217394</xdr:rowOff>
+      <xdr:rowOff>194982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1450039</xdr:colOff>
+      <xdr:colOff>1550892</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>340659</xdr:rowOff>
+      <xdr:rowOff>318247</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1504,7 +1521,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4744569" y="5551394"/>
+          <a:off x="4845422" y="5528982"/>
           <a:ext cx="1411941" cy="504265"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
@@ -2275,6 +2292,132 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1423146</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>257735</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="ホームベース 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3163114" y="2420470"/>
+          <a:ext cx="1411941" cy="504265"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面の移行方法</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>仕様書まとめ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1423146</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>257735</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="ホームベース 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3163114" y="2420470"/>
+          <a:ext cx="1411941" cy="504265"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面の移行方法</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>仕様書まとめ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2282,16 +2425,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1407619</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>181375</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>36019</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>116061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1390009</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>290232</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>18410</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>224918</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2300,8 +2443,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2822762" y="3991375"/>
-          <a:ext cx="1397533" cy="489857"/>
+          <a:off x="4742490" y="7355061"/>
+          <a:ext cx="1551214" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2345,16 +2488,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1398727</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>48899</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1377976</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>272143</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28149</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>261257</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2363,8 +2506,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2813870" y="4735286"/>
-          <a:ext cx="1394392" cy="489857"/>
+          <a:off x="4755370" y="9677400"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2528,16 +2671,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1401129</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>243167</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>40415</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>188739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1380378</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>352024</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19665</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>297596</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2546,8 +2689,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2816272" y="7863167"/>
-          <a:ext cx="1394392" cy="489857"/>
+          <a:off x="4746886" y="8951739"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2583,16 +2726,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1407496</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>196903</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3239</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>164246</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1406407</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>305760</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1554453</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>273103</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2601,8 +2744,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2822639" y="3244903"/>
-          <a:ext cx="1414054" cy="489857"/>
+          <a:off x="4709710" y="8165246"/>
+          <a:ext cx="1551214" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2646,26 +2789,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1403937</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>320808</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1266265</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1383187</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>48665</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1245515</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>332974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="ホームベース 8"/>
+        <xdr:cNvPr id="8" name="ホームベース 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2819080" y="7178808"/>
-          <a:ext cx="1394393" cy="489857"/>
+          <a:off x="9110383" y="8606117"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2692,7 +2835,15 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ストーリー演出</a:t>
+            <a:t>クリア時の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タイトル演出</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2701,26 +2852,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1345666</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>167449</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1284194</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>331694</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1324916</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>276306</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1263444</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>59551</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="ホームベース 9"/>
+        <xdr:cNvPr id="9" name="ホームベース 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4175952" y="4739449"/>
-          <a:ext cx="1394393" cy="489857"/>
+          <a:off x="9128312" y="7951694"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2747,15 +2898,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>クリア情報保存</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・引き継ぎ</a:t>
+            <a:t>ストーリー演出</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2765,25 +2908,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1261140</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>330414</xdr:rowOff>
+      <xdr:colOff>1302124</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>69476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1240389</xdr:colOff>
+      <xdr:colOff>1281374</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>58271</xdr:rowOff>
+      <xdr:rowOff>178333</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="ホームベース 10"/>
+        <xdr:cNvPr id="10" name="ホームベース 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8336854" y="7188414"/>
-          <a:ext cx="1394392" cy="489857"/>
+          <a:off x="9146242" y="7308476"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2810,7 +2953,15 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>クリア演出</a:t>
+            <a:t>クリア情報保存</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・引き継ぎ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2819,26 +2970,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1387607</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>178974</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>782170</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>210670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1366856</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>287831</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>761419</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>319527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="ホームベース 11"/>
+        <xdr:cNvPr id="11" name="ホームベース 10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4217893" y="3988974"/>
-          <a:ext cx="1394392" cy="489857"/>
+          <a:off x="7057464" y="10497670"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2865,15 +3016,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>下のフラッグ数</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>連動</a:t>
+            <a:t>クリア演出</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2882,26 +3025,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1394330</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>188260</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>788894</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>15688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1373579</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>297117</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>768143</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>124545</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="ホームベース 12"/>
+        <xdr:cNvPr id="12" name="ホームベース 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4224616" y="3236260"/>
-          <a:ext cx="1394392" cy="489857"/>
+          <a:off x="7064188" y="9921688"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2928,7 +3071,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>各物の仕様</a:t>
+            <a:t>下のフラッグ数</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -2936,7 +3079,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>動き方とか</a:t>
+            <a:t>連動</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2945,26 +3088,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1346625</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>176093</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>795617</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1325875</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>284950</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>774866</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>220916</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="ホームベース 13"/>
+        <xdr:cNvPr id="13" name="ホームベース 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5592054" y="3986093"/>
-          <a:ext cx="1394392" cy="489857"/>
+          <a:off x="7070911" y="9256059"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2991,7 +3134,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>決定処理</a:t>
+            <a:t>各物の仕様</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -2999,7 +3142,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>フラッグ判定</a:t>
+            <a:t>動き方とか</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3008,26 +3151,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3842</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>261899</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>802341</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>219636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1398234</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>370756</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>781590</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>328493</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="ホームベース 14"/>
+        <xdr:cNvPr id="14" name="ホームベース 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1418985" y="7881899"/>
-          <a:ext cx="1394392" cy="489857"/>
+          <a:off x="7077635" y="8601636"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3054,7 +3197,15 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ゲームオーバー処理</a:t>
+            <a:t>決定処理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>フラッグ判定</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3063,16 +3214,71 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1392731</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>820270</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>217073</xdr:rowOff>
+      <xdr:rowOff>327212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>799519</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>55069</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="ホームベース 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7095564" y="7947212"/>
+          <a:ext cx="1548073" cy="489857"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ゲームオーバー処理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1371981</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>325930</xdr:rowOff>
+      <xdr:colOff>815788</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>795037</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>162645</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3081,8 +3287,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5638160" y="7837073"/>
-          <a:ext cx="1394392" cy="489857"/>
+          <a:off x="7091082" y="7292788"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3188,7 +3394,7 @@
       <xdr:rowOff>126147</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>235004</xdr:rowOff>
@@ -3200,8 +3406,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4706471" y="6222147"/>
-          <a:ext cx="1568823" cy="489857"/>
+          <a:off x="4714875" y="6222147"/>
+          <a:ext cx="7858125" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3232,15 +3438,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>①作成</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タイトル～ステージ選択</a:t>
+            <a:t>作成</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3250,26 +3448,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1568822</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>144076</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1272989</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>163605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1568822</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>252933</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1252239</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>272462</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="ホームベース 18"/>
+        <xdr:cNvPr id="24" name="ホームベース 23"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6275293" y="6240076"/>
-          <a:ext cx="3137647" cy="489857"/>
+          <a:off x="9117107" y="9307605"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3295,20 +3493,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>BGM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>②作成</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>時計ステージ</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タイトル画面演出</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3319,25 +3505,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1568822</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>150800</xdr:rowOff>
+      <xdr:colOff>1290918</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1568822</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>259657</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1270168</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>111098</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="ホームベース 20"/>
+        <xdr:cNvPr id="25" name="ホームベース 24"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9412940" y="6246800"/>
-          <a:ext cx="3137647" cy="489857"/>
+          <a:off x="9135036" y="10670241"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3363,12 +3549,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>BGM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>③作成</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>クリア時の</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3376,9 +3558,8 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ロウソクステージ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>タイトル演出</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3386,26 +3567,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1568822</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>168729</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1286436</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>143434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1568822</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>277586</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1265686</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>252291</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="ホームベース 21"/>
+        <xdr:cNvPr id="26" name="ホームベース 25"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12550587" y="6264729"/>
-          <a:ext cx="3137647" cy="489857"/>
+          <a:off x="9130554" y="10049434"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3431,12 +3612,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>BGM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>④作成</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージ選択画面</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3444,7 +3621,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>太陽と月ステージ</a:t>
+            <a:t>各演出</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3454,26 +3631,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1568822</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>164247</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>811305</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>94128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1568822</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>273104</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>790554</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>202985</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="ホームベース 22"/>
+        <xdr:cNvPr id="27" name="ホームベース 26"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15688234" y="6260247"/>
-          <a:ext cx="3137647" cy="489857"/>
+          <a:off x="7086599" y="11143128"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3499,22 +3676,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>BGM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>④作成</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>メトロノームステージ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>失敗演出</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3522,26 +3686,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>21132</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>316006</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>89645</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>382</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>68895</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>43863</xdr:rowOff>
+      <xdr:rowOff>232120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="ホームベース 23"/>
+        <xdr:cNvPr id="28" name="ホームベース 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1436275" y="7174006"/>
-          <a:ext cx="1394393" cy="489857"/>
+          <a:off x="11071410" y="7362263"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3568,7 +3732,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タイトル画面演出</a:t>
+            <a:t>ツールと連動処理</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3578,26 +3742,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1214718</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>339698</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>90446</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>354585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1193968</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>67555</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>69696</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>82442</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="ホームベース 24"/>
+        <xdr:cNvPr id="29" name="ホームベース 28"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9705575" y="7197698"/>
-          <a:ext cx="1394393" cy="489857"/>
+          <a:off x="11139446" y="7974585"/>
+          <a:ext cx="1557679" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3624,16 +3788,9 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>クリア時の</a:t>
+            <a:t>全クリ時画面処理</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タイトル演出</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3641,26 +3798,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1373521</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>339379</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>65953</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>234842</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1352771</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>45203</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>343699</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="ホームベース 25"/>
+        <xdr:cNvPr id="30" name="ホームベース 29"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4203807" y="7197379"/>
-          <a:ext cx="1394393" cy="489857"/>
+          <a:off x="11114953" y="8616842"/>
+          <a:ext cx="1557679" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3687,15 +3844,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ステージ選択画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>各演出</a:t>
+            <a:t>画面移行演出処理</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3705,26 +3854,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1301162</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>322729</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>136665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1280411</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>50586</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>245522</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="ホームベース 26"/>
+        <xdr:cNvPr id="31" name="ホームベース 30"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6961733" y="7180729"/>
-          <a:ext cx="1394392" cy="489857"/>
+          <a:off x="12589565" y="6232665"/>
+          <a:ext cx="1573696" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3750,175 +3899,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>失敗演出</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1363273</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>155920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1342524</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>264777</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="ホームベース 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5608702" y="4727920"/>
-          <a:ext cx="1394393" cy="489857"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ツールと連動処理</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1385846</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>223956</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1365096</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>332813</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="ホームベース 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4216132" y="7843956"/>
-          <a:ext cx="1394393" cy="489857"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>全クリ時画面処理</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1339581</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>332814</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1318832</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>60671</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="ホームベース 29"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5585010" y="7190814"/>
-          <a:ext cx="1394393" cy="489857"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>画面移行演出処理</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作成</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3933,16 +3919,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>851648</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>261737</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>727823</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>176012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>754797</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>343380</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>630972</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>257655</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3951,8 +3937,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10264589" y="5214737"/>
-          <a:ext cx="1471973" cy="462643"/>
+          <a:off x="7014323" y="4748012"/>
+          <a:ext cx="1474774" cy="462643"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3996,16 +3982,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>858371</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>223636</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>734546</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>42661</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>761520</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>305279</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>637695</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>124304</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4014,8 +4000,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10271312" y="5938636"/>
-          <a:ext cx="1471973" cy="462643"/>
+          <a:off x="7021046" y="5376661"/>
+          <a:ext cx="1474774" cy="462643"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -4060,16 +4046,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>103095</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>107094</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>988920</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>183294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>6244</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>188737</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>892069</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>264937</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4078,8 +4064,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12653683" y="5060094"/>
-          <a:ext cx="1471973" cy="462643"/>
+          <a:off x="8847045" y="4755294"/>
+          <a:ext cx="1474774" cy="462643"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -4123,16 +4109,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>154642</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>181053</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1011892</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>257253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57791</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>262696</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>915041</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>338896</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4141,8 +4127,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12705230" y="6658053"/>
-          <a:ext cx="1471973" cy="462643"/>
+          <a:off x="8870017" y="5972253"/>
+          <a:ext cx="1474774" cy="462643"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -4186,16 +4172,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>150160</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>187777</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>988360</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44902</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>53309</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>269420</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>891509</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>126545</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4204,8 +4190,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12700748" y="5902777"/>
-          <a:ext cx="1471973" cy="462643"/>
+          <a:off x="8846485" y="5378902"/>
+          <a:ext cx="1474774" cy="462643"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -4249,16 +4235,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>172088</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1033182</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>314963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>60031</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>253731</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>936331</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15606</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4267,8 +4253,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12707470" y="8173088"/>
-          <a:ext cx="1471973" cy="462643"/>
+          <a:off x="8891307" y="7172963"/>
+          <a:ext cx="1474774" cy="462643"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -4312,16 +4298,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>824751</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>268458</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>805701</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>58908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>727900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>350101</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>708850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>140551</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4330,8 +4316,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10237692" y="8269458"/>
-          <a:ext cx="1471973" cy="462643"/>
+          <a:off x="7092201" y="6535908"/>
+          <a:ext cx="1474774" cy="462643"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -4375,16 +4361,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>103093</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>163124</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1007968</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>96449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>6242</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>244767</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>911117</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>178092</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4393,8 +4379,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12653681" y="7402124"/>
-          <a:ext cx="1471973" cy="462643"/>
+          <a:off x="8866093" y="6573449"/>
+          <a:ext cx="1474774" cy="462643"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -4438,16 +4424,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>826993</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>169847</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>750793</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>255572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>730142</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>251490</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>653942</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>337215</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4456,8 +4442,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10239934" y="7408847"/>
-          <a:ext cx="1471973" cy="462643"/>
+          <a:off x="7037293" y="5970572"/>
+          <a:ext cx="1474774" cy="462643"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -4502,16 +4488,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>697004</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>185534</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>839879</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>299834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600154</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>267177</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>743029</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>477</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4520,8 +4506,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14816416" y="6281534"/>
-          <a:ext cx="1471973" cy="462643"/>
+          <a:off x="7126379" y="7157834"/>
+          <a:ext cx="1474775" cy="462643"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -4847,22 +4833,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="4:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="23" t="s">
+    <row r="3" spans="4:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="5" spans="4:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="4:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D6" s="9" t="s">
         <v>1</v>
       </c>
@@ -4876,8 +4862,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="4:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="25" t="s">
+    <row r="7" spans="4:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -4890,8 +4876,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="26"/>
+    <row r="8" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="27"/>
       <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
@@ -4902,8 +4888,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="26"/>
+    <row r="9" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D9" s="27"/>
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
@@ -4914,8 +4900,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="26" t="s">
+    <row r="10" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -4928,8 +4914,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="26"/>
+    <row r="11" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="27"/>
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
@@ -4940,8 +4926,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="26"/>
+    <row r="12" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="27"/>
       <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
@@ -4952,8 +4938,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="26"/>
+    <row r="13" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="27"/>
       <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
@@ -4964,8 +4950,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="26"/>
+    <row r="14" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="27"/>
       <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
@@ -4976,8 +4962,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="26"/>
+    <row r="15" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D15" s="27"/>
       <c r="E15" s="3" t="s">
         <v>15</v>
       </c>
@@ -4988,8 +4974,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="26" t="s">
+    <row r="16" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="27" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -5002,8 +4988,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="27"/>
+    <row r="17" spans="3:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="28"/>
       <c r="E17" s="5" t="s">
         <v>34</v>
       </c>
@@ -5014,15 +5000,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="3:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="23" t="s">
+    <row r="20" spans="3:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="23" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="23" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
         <v>38</v>
       </c>
@@ -5030,7 +5016,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
         <v>37</v>
       </c>
@@ -5038,12 +5024,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" t="s">
         <v>51</v>
       </c>
@@ -5064,28 +5050,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Q29"/>
+  <dimension ref="B3:Q25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="23" t="s">
+    <row r="3" spans="2:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="5" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:17" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -5128,208 +5114,213 @@
         <v>58</v>
       </c>
       <c r="Q6" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="34" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="51" t="s">
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="44"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="47"/>
+    </row>
+    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="47"/>
+    </row>
+    <row r="10" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="47"/>
+    </row>
+    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="47"/>
+    </row>
+    <row r="12" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="45"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="48"/>
+    </row>
+    <row r="13" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="46"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="49"/>
-    </row>
-    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="49"/>
-    </row>
-    <row r="10" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="46"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="49"/>
-    </row>
-    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="49"/>
-    </row>
-    <row r="12" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="50"/>
-    </row>
-    <row r="13" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M13" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="M14" s="29"/>
-    </row>
-    <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>81</v>
-      </c>
-      <c r="M15" s="29"/>
-    </row>
-    <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M17" s="29"/>
-    </row>
-    <row r="22" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
         <v>85</v>
       </c>
+    </row>
+    <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>93</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="17">
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="Q7:Q12"/>
-    <mergeCell ref="M7:M12"/>
-    <mergeCell ref="M13:M17"/>
-    <mergeCell ref="N11:P12"/>
-    <mergeCell ref="N9:P10"/>
-    <mergeCell ref="N7:P8"/>
-    <mergeCell ref="C11:L12"/>
-    <mergeCell ref="C9:L10"/>
-    <mergeCell ref="C7:L8"/>
+    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="J7:J12"/>
+    <mergeCell ref="N7:N12"/>
+    <mergeCell ref="C7:I8"/>
+    <mergeCell ref="C9:I10"/>
+    <mergeCell ref="C11:I12"/>
+    <mergeCell ref="K7:M8"/>
+    <mergeCell ref="K9:M10"/>
+    <mergeCell ref="K11:M12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5341,22 +5332,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7:Q18"/>
+    <sheetView topLeftCell="G4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+    <row r="3" spans="2:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="5" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>41</v>
       </c>
@@ -5384,13 +5375,13 @@
       <c r="J6" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="23" t="s">
         <v>55</v>
       </c>
       <c r="N6" s="10" t="s">
@@ -5403,264 +5394,273 @@
         <v>58</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="49"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="44"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="65"/>
+    </row>
+    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="46"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="55"/>
-    </row>
-    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="55"/>
-    </row>
-    <row r="10" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="46"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="65"/>
+    </row>
+    <row r="10" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="44"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
       <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="55"/>
-    </row>
-    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="46" t="s">
+      <c r="J10" s="57"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="65"/>
+    </row>
+    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="55"/>
-    </row>
-    <row r="12" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="46"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="65"/>
+    </row>
+    <row r="12" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="44"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
       <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="55"/>
-    </row>
-    <row r="13" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="46" t="s">
+      <c r="J12" s="57"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="65"/>
+    </row>
+    <row r="13" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="55"/>
-    </row>
-    <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="65"/>
+    </row>
+    <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="44"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
       <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="55"/>
-    </row>
-    <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="46" t="s">
+      <c r="J14" s="57"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="65"/>
+    </row>
+    <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="55"/>
-    </row>
-    <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="46"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="65"/>
+    </row>
+    <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="44"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
       <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="55"/>
-    </row>
-    <row r="17" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="46" t="s">
+      <c r="J16" s="57"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="65"/>
+    </row>
+    <row r="17" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="55"/>
-    </row>
-    <row r="18" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="47"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="56"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="65"/>
+    </row>
+    <row r="18" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="45"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="28">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="Q7:Q18"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="Q7:Q18"/>
-    <mergeCell ref="M7:M18"/>
-    <mergeCell ref="C7:L8"/>
-    <mergeCell ref="N7:P8"/>
-    <mergeCell ref="C9:L10"/>
-    <mergeCell ref="N9:P10"/>
-    <mergeCell ref="C11:L12"/>
-    <mergeCell ref="N11:P12"/>
-    <mergeCell ref="N13:P14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="N15:P16"/>
-    <mergeCell ref="N17:P18"/>
-    <mergeCell ref="C17:L18"/>
-    <mergeCell ref="C15:L16"/>
-    <mergeCell ref="C13:L14"/>
+    <mergeCell ref="O17:P18"/>
+    <mergeCell ref="J7:J18"/>
+    <mergeCell ref="N7:N18"/>
+    <mergeCell ref="C7:I8"/>
+    <mergeCell ref="C9:I10"/>
+    <mergeCell ref="C11:I12"/>
+    <mergeCell ref="C13:I14"/>
+    <mergeCell ref="C15:I16"/>
+    <mergeCell ref="C17:I18"/>
+    <mergeCell ref="K7:M8"/>
+    <mergeCell ref="K9:M10"/>
+    <mergeCell ref="K11:M12"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="K15:M16"/>
+    <mergeCell ref="K17:M18"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="O13:P14"/>
+    <mergeCell ref="O15:P16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5672,22 +5672,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N24" sqref="N23:N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+    <row r="3" spans="2:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="5" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>41</v>
       </c>
@@ -5734,203 +5734,208 @@
         <v>58</v>
       </c>
       <c r="Q6" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="31" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="46"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="55"/>
-    </row>
-    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46" t="s">
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="44"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="68"/>
+    </row>
+    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="55"/>
-    </row>
-    <row r="10" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="53"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="68"/>
+    </row>
+    <row r="10" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="45"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="56"/>
-    </row>
-    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="69"/>
+    </row>
+    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="2:17" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="58" t="s">
+    <row r="13" spans="2:17" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="59"/>
-    </row>
-    <row r="14" spans="2:17" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
+      <c r="C13" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="71"/>
+    </row>
+    <row r="14" spans="2:17" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="28"/>
       <c r="C14" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="20">
         <v>4</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="16">
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="16">
         <v>2</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="16">
         <v>1</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="16">
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20" s="17">
         <v>5</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
     <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="C7:L8"/>
-    <mergeCell ref="N7:P8"/>
-    <mergeCell ref="N9:P10"/>
-    <mergeCell ref="C9:L10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C7:I8"/>
+    <mergeCell ref="C9:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="K7:M8"/>
+    <mergeCell ref="K9:M10"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="O9:P10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
